--- a/src/test/resources/test-data/cargoRunner/DataCreation.xlsx
+++ b/src/test/resources/test-data/cargoRunner/DataCreation.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91902\IdeaProjects\Selenium_E2E_Automation_framework\src\test\resources\test-data\cargoRunner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA41C9F-BE34-45C5-AC71-F71248062A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B8C5AF-F83E-4C11-8931-0C290108BF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>TestName</t>
   </si>
@@ -49,19 +50,100 @@
   </si>
   <si>
     <t>ORDER</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>Show on Customer Portal</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Raghu</t>
+  </si>
+  <si>
+    <t>Timmy</t>
+  </si>
+  <si>
+    <t>Taj Mohan</t>
+  </si>
+  <si>
+    <t>Noobmaster</t>
+  </si>
+  <si>
+    <t>Pika</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Nec</t>
+  </si>
+  <si>
+    <t>Der</t>
+  </si>
+  <si>
+    <t>ACCOUNT_PAYABLE</t>
+  </si>
+  <si>
+    <t>QUOTE</t>
+  </si>
+  <si>
+    <t>CONSOLIDATION</t>
+  </si>
+  <si>
+    <t>CUSTOMER_BOOKING</t>
+  </si>
+  <si>
+    <t>SHIPMENT</t>
+  </si>
+  <si>
+    <t>CUSTOMER_INTEGRATION</t>
+  </si>
+  <si>
+    <t>New msg</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>Hello milestone</t>
+  </si>
+  <si>
+    <t>wow milestone</t>
+  </si>
+  <si>
+    <t>rock milestone</t>
+  </si>
+  <si>
+    <t>create mielstone</t>
+  </si>
+  <si>
+    <t>fine with</t>
+  </si>
+  <si>
+    <t>ok done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,8 +166,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,7 +452,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,4 +504,207 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6C2F10-1EAD-4F6E-82ED-E75CE5301890}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>15678</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>6701</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>9078</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1672</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>4599</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>6022</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>9033</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>2311</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>